--- a/Input/Takaful_Nas/rateSheet1.xlsx
+++ b/Input/Takaful_Nas/rateSheet1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="29">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">maternity</t>
+    <t xml:space="preserve">term2</t>
   </si>
   <si>
     <t xml:space="preserve">currency</t>
@@ -101,16 +101,23 @@
   </si>
   <si>
     <t xml:space="preserve">NAS WN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS VN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -158,27 +165,52 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="5.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F0"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -207,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,34 +264,114 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFDCE6F0"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.88"/>
@@ -269,7 +381,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="50.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -320,16 +432,16 @@
       <c r="E2" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>6902</v>
+      <c r="F2" s="6" t="n">
+        <v>6995</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="0" t="n">
@@ -355,16 +467,16 @@
       <c r="E3" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>9302</v>
+      <c r="F3" s="9" t="n">
+        <v>9428</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -390,16 +502,16 @@
       <c r="E4" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>17051</v>
+      <c r="F4" s="6" t="n">
+        <v>17282</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="0" t="n">
@@ -425,16 +537,16 @@
       <c r="E5" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>27153</v>
+      <c r="F5" s="9" t="n">
+        <v>27520</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -460,20 +572,20 @@
       <c r="E6" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>6902</v>
+      <c r="F6" s="6" t="n">
+        <v>6995</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>4193</v>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>4249</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>17</v>
@@ -495,20 +607,20 @@
       <c r="E7" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>9302</v>
+      <c r="F7" s="9" t="n">
+        <v>9428</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>4193</v>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>4249</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>17</v>
@@ -530,20 +642,20 @@
       <c r="E8" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>17051</v>
+      <c r="F8" s="6" t="n">
+        <v>17282</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>4193</v>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>4249</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>17</v>
@@ -565,20 +677,20 @@
       <c r="E9" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>27153</v>
+      <c r="F9" s="9" t="n">
+        <v>27520</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>4193</v>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>4249</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>17</v>
@@ -600,16 +712,16 @@
       <c r="E10" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>5663</v>
+      <c r="F10" s="6" t="n">
+        <v>5739</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="0" t="n">
@@ -635,16 +747,16 @@
       <c r="E11" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>8408</v>
+      <c r="F11" s="9" t="n">
+        <v>8521</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="0" t="n">
@@ -670,16 +782,16 @@
       <c r="E12" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>16289</v>
+      <c r="F12" s="6" t="n">
+        <v>16509</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="0" t="n">
@@ -705,16 +817,16 @@
       <c r="E13" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>22876</v>
+      <c r="F13" s="9" t="n">
+        <v>23185</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="0" t="n">
@@ -740,20 +852,20 @@
       <c r="E14" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>5663</v>
+      <c r="F14" s="6" t="n">
+        <v>5739</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>3462</v>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>3509</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>17</v>
@@ -775,20 +887,20 @@
       <c r="E15" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>8408</v>
+      <c r="F15" s="9" t="n">
+        <v>8521</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>3462</v>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>3509</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>17</v>
@@ -810,20 +922,20 @@
       <c r="E16" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>16289</v>
+      <c r="F16" s="6" t="n">
+        <v>16509</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>3462</v>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>3509</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>17</v>
@@ -845,20 +957,20 @@
       <c r="E17" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>22876</v>
+      <c r="F17" s="9" t="n">
+        <v>23185</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>3462</v>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>3509</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>17</v>
@@ -880,16 +992,16 @@
       <c r="E18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>3849</v>
+      <c r="F18" s="6" t="n">
+        <v>3901</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="0" t="n">
@@ -915,16 +1027,16 @@
       <c r="E19" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>5684</v>
+      <c r="F19" s="9" t="n">
+        <v>5761</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="H19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="0" t="n">
@@ -950,16 +1062,16 @@
       <c r="E20" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>7622</v>
+      <c r="F20" s="6" t="n">
+        <v>7725</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="0" t="s">
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="0" t="n">
@@ -985,16 +1097,16 @@
       <c r="E21" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>15090</v>
+      <c r="F21" s="9" t="n">
+        <v>15294</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="H21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="0" t="n">
@@ -1020,20 +1132,20 @@
       <c r="E22" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>3849</v>
+      <c r="F22" s="6" t="n">
+        <v>3901</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>2704</v>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>2741</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>17</v>
@@ -1055,20 +1167,20 @@
       <c r="E23" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>5684</v>
+      <c r="F23" s="9" t="n">
+        <v>5761</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>2704</v>
+      <c r="H23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>2741</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>17</v>
@@ -1090,20 +1202,20 @@
       <c r="E24" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>7622</v>
+      <c r="F24" s="6" t="n">
+        <v>7725</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>2704</v>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>2741</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>17</v>
@@ -1125,20 +1237,20 @@
       <c r="E25" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>15090</v>
+      <c r="F25" s="9" t="n">
+        <v>15294</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>2704</v>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="10" t="n">
+        <v>2741</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>17</v>
@@ -1160,16 +1272,16 @@
       <c r="E26" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>3237</v>
+      <c r="F26" s="6" t="n">
+        <v>3281</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="0" t="n">
@@ -1195,16 +1307,16 @@
       <c r="E27" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>3806</v>
+      <c r="F27" s="9" t="n">
+        <v>3858</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="0" t="n">
@@ -1230,16 +1342,16 @@
       <c r="E28" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>6884</v>
+      <c r="F28" s="6" t="n">
+        <v>6977</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="H28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="0" t="n">
@@ -1265,16 +1377,16 @@
       <c r="E29" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>13142</v>
+      <c r="F29" s="9" t="n">
+        <v>13319</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="H29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="0" t="n">
@@ -1300,20 +1412,20 @@
       <c r="E30" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>3237</v>
+      <c r="F30" s="6" t="n">
+        <v>3281</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>2387</v>
+      <c r="H30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="11" t="n">
+        <v>2419</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>17</v>
@@ -1335,20 +1447,20 @@
       <c r="E31" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>3806</v>
+      <c r="F31" s="9" t="n">
+        <v>3858</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>2387</v>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="11" t="n">
+        <v>2419</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>17</v>
@@ -1370,20 +1482,20 @@
       <c r="E32" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>6884</v>
+      <c r="F32" s="6" t="n">
+        <v>6977</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>2387</v>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="11" t="n">
+        <v>2419</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>17</v>
@@ -1405,20 +1517,20 @@
       <c r="E33" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <v>13142</v>
+      <c r="F33" s="9" t="n">
+        <v>13319</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>2387</v>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="11" t="n">
+        <v>2419</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>17</v>
@@ -1440,16 +1552,16 @@
       <c r="E34" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <v>2428</v>
+      <c r="F34" s="6" t="n">
+        <v>2461</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="0" t="s">
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J34" s="0" t="n">
@@ -1475,16 +1587,16 @@
       <c r="E35" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F35" s="0" t="n">
-        <v>2874</v>
+      <c r="F35" s="9" t="n">
+        <v>2913</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="H35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J35" s="0" t="n">
@@ -1510,16 +1622,16 @@
       <c r="E36" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F36" s="0" t="n">
-        <v>6364</v>
+      <c r="F36" s="6" t="n">
+        <v>6850</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="0" t="s">
+      <c r="H36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J36" s="0" t="n">
@@ -1545,16 +1657,16 @@
       <c r="E37" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F37" s="0" t="n">
-        <v>12422</v>
+      <c r="F37" s="9" t="n">
+        <v>12589</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="0" t="s">
+      <c r="H37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="0" t="n">
@@ -1580,20 +1692,20 @@
       <c r="E38" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F38" s="0" t="n">
-        <v>2428</v>
+      <c r="F38" s="6" t="n">
+        <v>2461</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>2340</v>
+      <c r="H38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="11" t="n">
+        <v>2372</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>17</v>
@@ -1615,20 +1727,20 @@
       <c r="E39" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F39" s="0" t="n">
-        <v>2874</v>
+      <c r="F39" s="9" t="n">
+        <v>2913</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>2340</v>
+      <c r="H39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="11" t="n">
+        <v>2372</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>17</v>
@@ -1650,20 +1762,20 @@
       <c r="E40" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F40" s="0" t="n">
-        <v>6364</v>
+      <c r="F40" s="6" t="n">
+        <v>6850</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>2340</v>
+      <c r="H40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="11" t="n">
+        <v>2372</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>17</v>
@@ -1685,22 +1797,302 @@
       <c r="E41" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F41" s="0" t="n">
-        <v>12422</v>
+      <c r="F41" s="9" t="n">
+        <v>12589</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>2340</v>
+      <c r="H41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="11" t="n">
+        <v>2372</v>
       </c>
       <c r="K41" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>2774</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>6831</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>12501</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="11" t="n">
+        <v>2259</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2774</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="11" t="n">
+        <v>2259</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>6831</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="11" t="n">
+        <v>2259</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>12501</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="11" t="n">
+        <v>2259</v>
+      </c>
+      <c r="K49" s="0" t="s">
         <v>17</v>
       </c>
     </row>
